--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5840" yWindow="1900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_message</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>userNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -310,13 +306,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>已有士兵正在被招募</t>
-  </si>
-  <si>
-    <t>soldiersAreRecruitingNow</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>招募数量超过单次招募上限</t>
   </si>
   <si>
@@ -1346,6 +1335,26 @@
   </si>
   <si>
     <t>此士兵还处于锁定状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器通讯出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>netErrorWithIapServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_message</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1484,7 +1493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1660">
+  <cellStyleXfs count="1668">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3149,6 +3158,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3162,14 +3179,846 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1660">
+  <cellStyles count="1668">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -3995,834 +4844,10 @@
     <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1656" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="789" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="791" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="793" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="819" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="821" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="823" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="825" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="827" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="829" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="831" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="833" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="835" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="837" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="839" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="841" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="843" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="845" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="847" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="849" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="851" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="853" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="855" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="857" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="859" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="861" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="863" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="865" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="867" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="869" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="871" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="873" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="875" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="877" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="879" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="881" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="883" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="885" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="887" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="889" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="891" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="893" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="895" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="897" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="899" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="901" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="903" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="905" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="907" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="909" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="911" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="913" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="915" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="917" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="919" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="921" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="923" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="925" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="927" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="929" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="931" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="933" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="935" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="937" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="939" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="957" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="959" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="961" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="963" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="965" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="967" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="981" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="983" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="985" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="993" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="995" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="997" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="999" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1001" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1009" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1011" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1013" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1015" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1017" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1025" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1027" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1029" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1031" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1039" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1047" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1049" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1051" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1053" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1055" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1057" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1059" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1061" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1063" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1065" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1067" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1079" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1081" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1083" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5269,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5289,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5305,436 +5330,436 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>502</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>503</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>504</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>505</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>506</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>507</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
         <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>512</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>513</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>514</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>515</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
         <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
         <v>518</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>519</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
         <v>520</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>521</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3">
         <v>522</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
         <v>523</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3">
         <v>524</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
         <v>525</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3">
         <v>526</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3">
         <v>527</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3">
         <v>528</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3">
         <v>529</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="3">
         <v>530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3">
         <v>531</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3">
         <v>532</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3">
         <v>533</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3">
         <v>534</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3">
         <v>535</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
         <v>536</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3">
         <v>537</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
         <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3">
         <v>540</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
@@ -5751,23 +5776,23 @@
         <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3">
         <v>543</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3">
         <v>544</v>
@@ -5784,150 +5809,150 @@
         <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="3">
         <v>546</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="3">
         <v>547</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3">
         <v>548</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3">
         <v>549</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="3">
         <v>550</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="3">
         <v>551</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="3">
         <v>552</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="3">
         <v>553</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="3">
         <v>554</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="3">
         <v>555</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="3">
         <v>556</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="3">
         <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
@@ -5938,23 +5963,23 @@
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3">
         <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3">
         <v>561</v>
@@ -5965,216 +5990,216 @@
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="3">
         <v>562</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="3">
         <v>563</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="3">
         <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3">
         <v>565</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" s="3">
         <v>566</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="3">
         <v>567</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="3">
         <v>568</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="3">
         <v>569</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" s="3">
         <v>570</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B72" s="3">
         <v>571</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="3">
         <v>572</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="3">
         <v>573</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="3">
         <v>574</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="3">
         <v>575</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="3">
         <v>576</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="3">
         <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" s="3">
         <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" s="3">
         <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B82" s="3">
         <v>581</v>
@@ -6185,13 +6210,13 @@
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B83" s="3">
         <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
@@ -6207,233 +6232,233 @@
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B85" s="3">
         <v>584</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" s="3">
         <v>585</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" s="3">
         <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" s="3">
         <v>587</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B89" s="3">
         <v>588</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B90" s="3">
         <v>589</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" s="3">
         <v>590</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B92" s="3">
         <v>591</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" s="3">
         <v>592</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" s="3">
         <v>593</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" s="3">
         <v>594</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="3">
         <v>595</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B97" s="3">
         <v>596</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B98" s="3">
         <v>597</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B99" s="3">
         <v>598</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B100" s="3">
         <v>599</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B101" s="3">
         <v>600</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B102" s="3">
         <v>601</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103" s="3">
         <v>602</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104" s="3">
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B105" s="3">
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -6444,23 +6469,23 @@
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="3">
         <v>607</v>
@@ -6471,794 +6496,805 @@
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>360</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B122" s="3">
         <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B123" s="3">
         <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B134" s="3">
         <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B135" s="3">
         <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B136" s="3">
         <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B137" s="3">
         <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B138" s="3">
         <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B139" s="3">
         <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B140" s="3">
         <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B141" s="3">
         <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B151" s="3">
         <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B159" s="3">
         <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B160" s="3">
         <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B161" s="3">
         <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B162" s="3">
         <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B163" s="3">
         <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B164" s="3">
         <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B165" s="3">
         <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B166" s="3">
         <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B167" s="3">
         <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B168" s="3">
         <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" s="3">
+        <v>680</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6100" yWindow="2300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -43,6 +43,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>STR_message</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>userNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -342,14 +346,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldierTreatEventExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵治疗事件已存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙蛋早已成功孵化</t>
   </si>
   <si>
@@ -1351,10 +1347,6 @@
   </si>
   <si>
     <t>iapServerNotAvailable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCAL_message</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3185,11 +3177,837 @@
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
-    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4019,835 +4837,9 @@
     <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="788" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="790" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="792" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="818" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="820" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="822" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="824" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="826" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="828" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="830" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="832" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="834" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="836" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="838" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="840" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="842" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="844" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="846" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="848" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="850" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="852" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="854" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="856" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="858" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="860" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="862" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="864" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="866" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="868" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="870" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="872" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="874" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="876" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="878" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="880" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="882" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="884" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="886" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="888" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="890" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="892" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="894" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="896" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="898" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="900" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="902" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="904" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="906" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="908" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="910" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="912" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="914" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="916" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="918" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="920" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="922" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="924" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="926" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="928" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="930" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="932" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="934" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="936" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="938" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="956" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="958" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="960" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="962" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="964" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="966" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="980" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="982" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="984" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="992" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="994" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="996" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="998" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1000" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1008" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1010" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1012" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1014" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1016" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1024" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1026" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1028" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1030" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1038" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1046" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1048" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1050" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1052" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1054" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1056" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1058" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1060" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1062" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1064" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1066" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1078" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1080" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1082" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1184" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1186" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1188" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1190" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1192" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1194" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1196" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1198" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1200" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1202" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1204" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1206" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1208" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1210" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1212" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1214" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1216" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1218" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1220" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1222" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1224" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1226" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1228" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1230" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1232" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1234" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1236" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1238" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1240" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1242" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1244" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1246" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1248" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1250" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1252" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1254" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1256" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1258" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1260" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1262" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1264" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1266" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1268" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1270" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1272" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1274" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1276" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1278" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1280" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1282" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1284" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1286" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1288" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1290" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1292" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1294" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1296" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1298" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1300" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1302" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1304" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1306" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1326" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1328" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1330" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1332" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1334" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1336" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1338" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1340" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1342" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1344" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1346" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1348" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1350" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1352" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1354" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1356" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1358" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1420" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1422" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1452" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1460" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1462" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1464" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1466" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1516" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1526" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1528" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1530" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1532" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1534" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1536" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1538" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1540" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1542" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1544" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1546" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1548" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1550" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1552" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1554" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1556" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1558" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1560" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1562" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1564" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1566" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1568" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1570" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1572" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1574" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1576" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1578" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1580" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1582" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1584" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1586" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1588" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1590" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1592" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1594" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1596" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1598" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1600" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1602" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1604" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1606" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1608" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1610" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1612" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1614" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1616" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1618" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1620" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1622" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1624" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1626" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1628" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1630" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1632" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1634" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1636" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1638" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1640" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1642" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1644" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1646" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1648" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1650" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1652" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1656" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5294,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5314,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>362</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5330,469 +5322,469 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>502</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>503</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>504</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>505</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>506</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>507</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
         <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>512</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>513</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>514</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3">
         <v>515</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
         <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>518</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3">
         <v>519</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>520</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
         <v>521</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
         <v>522</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3">
         <v>523</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>524</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>525</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
         <v>526</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3">
         <v>527</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <v>528</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3">
         <v>529</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3">
         <v>530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3">
         <v>531</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3">
         <v>532</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3">
         <v>533</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
         <v>534</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
         <v>535</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
         <v>536</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3">
         <v>537</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3">
         <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3">
         <v>540</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3">
         <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="3">
         <v>543</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3">
         <v>544</v>
@@ -5803,156 +5795,156 @@
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
         <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3">
         <v>546</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3">
         <v>547</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3">
         <v>548</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3">
         <v>549</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3">
         <v>550</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3">
         <v>551</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3">
         <v>552</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
         <v>553</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3">
         <v>554</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3">
         <v>555</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3">
         <v>556</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3">
         <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
@@ -5968,238 +5960,238 @@
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3">
         <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3">
         <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B63" s="3">
         <v>562</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="3">
         <v>563</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3">
         <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3">
         <v>565</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67" s="3">
         <v>566</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" s="3">
         <v>567</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3">
         <v>568</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70" s="3">
         <v>569</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" s="3">
         <v>570</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" s="3">
         <v>571</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" s="3">
         <v>572</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B74" s="3">
         <v>573</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" s="3">
         <v>574</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" s="3">
         <v>575</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" s="3">
         <v>576</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" s="3">
         <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B79" s="3">
         <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B80" s="3">
         <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" s="3">
         <v>581</v>
@@ -6210,255 +6202,255 @@
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3">
         <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" s="3">
         <v>583</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" s="3">
         <v>584</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B86" s="3">
         <v>585</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3">
         <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" s="3">
         <v>587</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B89" s="3">
         <v>588</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B90" s="3">
         <v>589</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B91" s="3">
         <v>590</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B92" s="3">
         <v>591</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B93" s="3">
         <v>592</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B94" s="3">
         <v>593</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" s="3">
         <v>594</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B96" s="3">
         <v>595</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B97" s="3">
         <v>596</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B98" s="3">
         <v>597</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B99" s="3">
         <v>598</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B100" s="3">
         <v>599</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B101" s="3">
         <v>600</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B102" s="3">
         <v>601</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B103" s="3">
         <v>602</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" s="3">
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B105" s="3">
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -6474,62 +6466,62 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" s="3">
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
@@ -6546,18 +6538,18 @@
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -6573,35 +6565,35 @@
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>359</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
@@ -6612,12 +6604,12 @@
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
@@ -6628,90 +6620,90 @@
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" s="3">
         <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B123" s="3">
         <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
@@ -6744,12 +6736,12 @@
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
@@ -6760,112 +6752,112 @@
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B134" s="3">
         <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B135" s="3">
         <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B136" s="3">
         <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B137" s="3">
         <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B138" s="3">
         <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B139" s="3">
         <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B140" s="3">
         <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B141" s="3">
         <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
@@ -6876,12 +6868,12 @@
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
@@ -6892,35 +6884,35 @@
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
@@ -6931,12 +6923,12 @@
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
@@ -6947,68 +6939,68 @@
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B151" s="3">
         <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
@@ -7019,12 +7011,12 @@
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
@@ -7035,200 +7027,200 @@
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" s="3">
         <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B160" s="3">
         <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" s="3">
         <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B162" s="3">
         <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" s="3">
         <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B164" s="3">
         <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B165" s="3">
         <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B166" s="3">
         <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B167" s="3">
         <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B168" s="3">
         <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
@@ -7239,62 +7231,51 @@
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="20" customHeight="1">
-      <c r="A181" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B181" s="3">
-        <v>680</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="8820" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="362">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1048,14 +1048,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>onlyAllianceDecorateBuildingCanBeDistroy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能拆除联盟装饰物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此联盟事件已经激活</t>
   </si>
   <si>
@@ -1347,6 +1339,18 @@
   </si>
   <si>
     <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟建筑不允许移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingNotAllowMove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1485,7 +1489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1668">
+  <cellStyleXfs count="1684">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3158,6 +3162,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3171,7 +3191,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1668">
+  <cellStyles count="1684">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4008,6 +4028,14 @@
     <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1682" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4837,6 +4865,14 @@
     <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1683" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5286,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5718,13 +5754,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6543,24 +6579,24 @@
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -6862,13 +6898,13 @@
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
@@ -6906,24 +6942,24 @@
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
@@ -6994,24 +7030,24 @@
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
@@ -7214,29 +7250,29 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7247,7 +7283,7 @@
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
@@ -7264,18 +7300,29 @@
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" s="3">
+        <v>680</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6360" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="364">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1351,6 +1351,14 @@
   </si>
   <si>
     <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5322,10 +5330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7325,6 +7333,17 @@
         <v>187</v>
       </c>
     </row>
+    <row r="182" spans="1:3" ht="20" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" s="1">
+        <v>681</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5220" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1359,6 +1359,22 @@
   </si>
   <si>
     <t>giftNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能切换到相同的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSameServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1497,7 +1513,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1684">
+  <cellStyleXfs count="1692">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3186,6 +3202,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3199,7 +3223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1684">
+  <cellStyles count="1692">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4044,6 +4068,10 @@
     <cellStyle name="超链接" xfId="1678" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4881,6 +4909,10 @@
     <cellStyle name="访问过的超链接" xfId="1679" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5330,10 +5362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7344,6 +7376,28 @@
         <v>362</v>
       </c>
     </row>
+    <row r="183" spans="1:3" ht="20" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" s="1">
+        <v>682</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -564,13 +564,6 @@
   </si>
   <si>
     <t>sellItemNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>银币不足</t>
-  </si>
-  <si>
-    <t>coinNotEnough</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5362,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5552,7 +5545,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
@@ -5794,13 +5787,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6245,35 +6238,35 @@
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B80" s="3">
         <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B82" s="3">
         <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
@@ -6509,7 +6502,7 @@
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" s="3">
         <v>603</v>
@@ -6520,13 +6513,13 @@
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3">
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -6537,7 +6530,7 @@
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
@@ -6575,7 +6568,7 @@
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
@@ -6586,57 +6579,57 @@
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>224</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -6663,24 +6656,24 @@
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
@@ -6762,7 +6755,7 @@
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
@@ -6773,46 +6766,46 @@
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
@@ -6971,24 +6964,24 @@
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
@@ -7059,24 +7052,24 @@
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
@@ -7279,29 +7272,29 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
@@ -7312,7 +7305,7 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7329,29 +7322,29 @@
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
@@ -7362,14 +7355,14 @@
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>187</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -7380,22 +7373,11 @@
       <c r="A183" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="20" customHeight="1">
-      <c r="A184" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B184" s="1">
-        <v>683</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5400" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -968,13 +968,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>此玩家已被邀请加入我方联盟,请等候其处理</t>
-  </si>
-  <si>
-    <t>inviteRequestAlreadySend</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此玩家的邀请信息已满,请等候其处理后再进行邀请</t>
   </si>
   <si>
@@ -1263,111 +1256,122 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>账号GameCenter账号已经绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAlreadyBindGCAId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号未被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>当前玩家还未绑定GameCenter账号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号已绑定当前玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSoldierIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此士兵还处于锁定状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器通讯出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>netErrorWithIapServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟建筑不允许移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingNotAllowMove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能切换到相同的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSameServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGCAId</t>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByOtherPlayer</t>
+  </si>
+  <si>
+    <t>玩家GameCenter账号已经绑定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>此GameCenter账号已被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>当前玩家还未绑定GameCenter账号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theUserDoNotBindGCId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此GameCenter账号已绑定当前玩家</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdIsNotBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApnIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theSoldierIsLocked</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此士兵还处于锁定状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAP服务器通讯出错</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAP服务器关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>netErrorWithIapServer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iapServerNotAvailable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此联盟建筑不允许移动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theAllianceBuildingNotAllowMove</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giftNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能切换到相同的服务器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>canNotSwitchToTheSameServer</t>
+    <t>theGCIdIsNotBindedByOtherPlayer</t>
+  </si>
+  <si>
+    <t>thePlayerDoNotBindGCId</t>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByCurrentPlayer</t>
+  </si>
+  <si>
+    <t>玩家未在当前服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotInCurrentServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有事件需要协助加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noEventsNeedTobeSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1510,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1692">
+  <cellStyleXfs count="1694">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3203,6 +3207,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3216,7 +3222,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1692">
+  <cellStyles count="1694">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4065,6 +4071,7 @@
     <cellStyle name="超链接" xfId="1686" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1692" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4906,6 +4913,7 @@
     <cellStyle name="访问过的超链接" xfId="1687" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1693" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5355,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5787,13 +5795,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6601,24 +6609,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -6953,24 +6961,24 @@
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
@@ -7041,24 +7049,24 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
@@ -7250,123 +7258,123 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>357</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
@@ -7378,6 +7386,17 @@
       </c>
       <c r="C183" s="1" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4100" yWindow="2660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1272,10 +1272,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1373,6 +1369,25 @@
   <si>
     <t>noEventsNeedTobeSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟人数已达最大</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceMemberCountReachMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战即将结束,不能派兵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightWillEndCanNotSendTroops</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>apnIdAlreadySeted</t>
   </si>
 </sst>
 </file>
@@ -5363,10 +5378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5795,13 +5810,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6609,24 +6624,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -7258,29 +7273,29 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
@@ -7291,7 +7306,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
@@ -7302,7 +7317,7 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
@@ -7313,7 +7328,7 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7324,18 +7339,18 @@
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
@@ -7346,57 +7361,79 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B184" s="1">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="20" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="1">
+        <v>684</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="20" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="1">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="2660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5120" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1388,6 +1388,14 @@
   </si>
   <si>
     <t>apnIdAlreadySeted</t>
+  </si>
+  <si>
+    <t>服务器繁忙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverTooBusy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5378,10 +5386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7436,6 +7444,17 @@
         <v>369</v>
       </c>
     </row>
+    <row r="187" spans="1:3" ht="20" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="1">
+        <v>686</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="8040" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1395,6 +1395,14 @@
   </si>
   <si>
     <t>serverTooBusy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家第二条队列已经解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerSecondMarchQueueAlreadyUnlocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5386,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7455,6 +7463,17 @@
         <v>372</v>
       </c>
     </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4900" yWindow="1400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -669,13 +669,6 @@
   </si>
   <si>
     <t>playerNameAlreadyUsed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能修改为相同的城市名称</t>
-  </si>
-  <si>
-    <t>cityNameCanNotBeTheSame</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5394,10 +5387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5826,13 +5819,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6530,7 +6523,7 @@
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="3">
         <v>602</v>
@@ -6541,13 +6534,13 @@
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="3">
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
@@ -6558,7 +6551,7 @@
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -6596,7 +6589,7 @@
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
@@ -6607,57 +6600,57 @@
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -6684,24 +6677,24 @@
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
@@ -6783,7 +6776,7 @@
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
@@ -6794,46 +6787,46 @@
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
@@ -6981,24 +6974,24 @@
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
@@ -7069,24 +7062,24 @@
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7278,90 +7271,90 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7372,7 +7365,7 @@
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
@@ -7399,13 +7392,13 @@
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
@@ -7423,7 +7416,7 @@
       <c r="A184" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -7434,7 +7427,7 @@
       <c r="A185" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="3">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -7443,35 +7436,24 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="3">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B186" s="1">
-        <v>685</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>686</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="20" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>noActivePlayerId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有激活的玩家Id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家不存在</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -93,12 +85,6 @@
   <si>
     <t>allianceNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家不存在于mongo数据库</t>
-  </si>
-  <si>
-    <t>playerNotExistInMongo</t>
   </si>
   <si>
     <t>服务器维护中</t>
@@ -1534,7 +1520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1694">
+  <cellStyleXfs count="1714">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3233,6 +3219,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3246,7 +3252,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1694">
+  <cellStyles count="1714">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4096,6 +4102,16 @@
     <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1712" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4938,6 +4954,16 @@
     <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1713" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5387,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5434,13 +5460,13 @@
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>503</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -5456,24 +5482,24 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>505</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>506</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -5489,46 +5515,46 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
         <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -5544,46 +5570,46 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>513</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B15" s="3">
         <v>514</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
         <v>515</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -5665,7 +5691,7 @@
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
         <v>524</v>
@@ -5676,13 +5702,13 @@
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3">
         <v>525</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -5693,7 +5719,7 @@
         <v>526</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -5797,46 +5823,46 @@
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="B37" s="3">
         <v>536</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3">
         <v>537</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
         <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -5852,13 +5878,13 @@
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
@@ -6017,7 +6043,7 @@
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="3">
         <v>556</v>
@@ -6034,12 +6060,12 @@
         <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
@@ -6056,7 +6082,7 @@
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
@@ -6248,13 +6274,13 @@
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B78" s="3">
         <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
@@ -6270,7 +6296,7 @@
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" s="3">
         <v>579</v>
@@ -6281,13 +6307,13 @@
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
@@ -6501,7 +6527,7 @@
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" s="3">
         <v>600</v>
@@ -6518,12 +6544,12 @@
         <v>601</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" s="3">
         <v>602</v>
@@ -6540,7 +6566,7 @@
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
@@ -6567,7 +6593,7 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
@@ -6578,68 +6604,68 @@
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="3">
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -6655,13 +6681,13 @@
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -6677,13 +6703,13 @@
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
@@ -6754,7 +6780,7 @@
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
@@ -6765,35 +6791,35 @@
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
@@ -6804,18 +6830,18 @@
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
@@ -6952,13 +6978,13 @@
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
@@ -6974,13 +7000,13 @@
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
@@ -7040,13 +7066,13 @@
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
@@ -7062,13 +7088,13 @@
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7249,24 +7275,24 @@
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
@@ -7277,7 +7303,7 @@
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
@@ -7288,62 +7314,62 @@
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
@@ -7354,7 +7380,7 @@
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7370,24 +7396,24 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
@@ -7414,46 +7440,24 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B185" s="3">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="20" customHeight="1">
-      <c r="A186" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B186" s="3">
-        <v>685</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="20" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B187" s="3">
-        <v>686</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1382,6 +1382,14 @@
   </si>
   <si>
     <t>playerSecondMarchQueueAlreadyUnlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长任务奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>growUpTaskRewardAlreadyGet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1528,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1714">
+  <cellStyleXfs count="1720">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3239,6 +3247,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3252,7 +3266,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1714">
+  <cellStyles count="1720">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4112,6 +4126,9 @@
     <cellStyle name="超链接" xfId="1708" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1710" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1718" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4964,6 +4981,9 @@
     <cellStyle name="访问过的超链接" xfId="1709" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1711" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1719" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5413,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6582,881 +6602,892 @@
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="B106" s="3">
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B108" s="3">
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3">
         <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3">
         <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3">
         <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3">
         <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3">
         <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3">
         <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3">
         <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B139" s="3">
         <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3">
         <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B141" s="3">
         <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B151" s="3">
         <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B159" s="3">
         <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B160" s="3">
         <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B161" s="3">
         <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B162" s="3">
         <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B163" s="3">
         <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B164" s="3">
         <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B165" s="3">
         <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B166" s="3">
         <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B167" s="3">
         <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B168" s="3">
         <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B185" s="3">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="20" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="3">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>368</v>
       </c>
     </row>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1390,6 +1390,14 @@
   </si>
   <si>
     <t>growUpTaskRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法的请求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegalRequest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5433,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7491,6 +7499,17 @@
         <v>368</v>
       </c>
     </row>
+    <row r="187" spans="1:3" ht="20" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="1">
+        <v>686</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1398,6 +1398,14 @@
   </si>
   <si>
     <t>illegalRequest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据已经初始化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerDataAlreadyInited</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5441,10 +5449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7510,6 +7518,17 @@
         <v>372</v>
       </c>
     </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1355,14 +1355,6 @@
   </si>
   <si>
     <t>allianceMemberCountReachMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战即将结束,不能派兵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightWillEndCanNotSendTroops</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5449,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6618,13 +6610,13 @@
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B106" s="3">
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
@@ -7377,7 +7369,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
@@ -7476,13 +7468,13 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
@@ -7498,35 +7490,24 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B186" s="3">
         <v>685</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>686</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="20" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5160" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1398,6 +1398,22 @@
   </si>
   <si>
     <t>playerDataAlreadyInited</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备禁止登陆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家禁止登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5441,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7510,6 +7526,28 @@
         <v>372</v>
       </c>
     </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="20" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="1">
+        <v>688</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4900" yWindow="1400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1398,22 +1398,6 @@
   </si>
   <si>
     <t>playerDataAlreadyInited</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备禁止登陆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家禁止登录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceLocked</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5457,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7526,28 +7510,6 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="20" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="20" customHeight="1">
-      <c r="A189" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B189" s="1">
-        <v>688</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6540" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1414,6 +1414,22 @@
   </si>
   <si>
     <t>playerLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次加入联盟奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstJoinAllianceRewardAlreadyGeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导已经完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fteAlreadyFinished</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1552,7 +1568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1720">
+  <cellStyleXfs count="1728">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3277,6 +3293,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3290,7 +3314,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1720">
+  <cellStyles count="1728">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4153,6 +4177,10 @@
     <cellStyle name="超链接" xfId="1714" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1716" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5008,6 +5036,10 @@
     <cellStyle name="访问过的超链接" xfId="1715" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1717" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5457,10 +5489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7548,6 +7580,28 @@
         <v>375</v>
       </c>
     </row>
+    <row r="190" spans="1:3" ht="20" customHeight="1">
+      <c r="A190" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" s="1">
+        <v>689</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="20" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" s="1">
+        <v>690</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4840" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1430,6 +1430,14 @@
   </si>
   <si>
     <t>fteAlreadyFinished</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonError</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1576,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1728">
+  <cellStyleXfs count="1730">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3301,6 +3309,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3314,7 +3324,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1728">
+  <cellStyles count="1730">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4181,6 +4191,7 @@
     <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5040,6 +5051,7 @@
     <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5489,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5514,2091 +5526,2102 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="B2" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>335</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="B38" s="3">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="3">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="3">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="3">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="3">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="3">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="3">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="3">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="3">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="3">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="3">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" s="3">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="3">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" s="3">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B71" s="3">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="3">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="3">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="3">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="3">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="3">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="3">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="3">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" s="3">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="3">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="3">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="3">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="3">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="3">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="3">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="3">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="3">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="3">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B94" s="3">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B95" s="3">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="3">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="3">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="3">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="3">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B100" s="3">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B101" s="3">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B102" s="3">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" s="3">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" s="3">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" s="3">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="B106" s="3">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="B107" s="3">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B108" s="3">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B109" s="3">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110" s="3">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="B111" s="3">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B112" s="3">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B113" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="3">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B116" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B117" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B119" s="3">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="3">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B121" s="3">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B122" s="3">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B123" s="3">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B124" s="3">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" s="3">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="3">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127" s="3">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B128" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B129" s="3">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B130" s="3">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B131" s="3">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B132" s="3">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B133" s="3">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B134" s="3">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B135" s="3">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="3">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B137" s="3">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B138" s="3">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B139" s="3">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B140" s="3">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B141" s="3">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B142" s="3">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" s="3">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B144" s="3">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B145" s="3">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B146" s="3">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B147" s="3">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B148" s="3">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B149" s="3">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B150" s="3">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B151" s="3">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B152" s="3">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B153" s="3">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B154" s="3">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B155" s="3">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B156" s="3">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B157" s="3">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B158" s="3">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B159" s="3">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B160" s="3">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B161" s="3">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B162" s="3">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B163" s="3">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B164" s="3">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B165" s="3">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B166" s="3">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B167" s="3">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B168" s="3">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B169" s="3">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B170" s="3">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B171" s="3">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B172" s="3">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B173" s="3">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B174" s="3">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B175" s="3">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B176" s="3">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B177" s="3">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B179" s="3">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B180" s="3">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B181" s="3">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182" s="3">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" s="3">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B184" s="3">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B185" s="3">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B186" s="3">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B187" s="3">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
+        <v>373</v>
+      </c>
+      <c r="B188" s="3">
+        <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="1">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B190" s="1">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="1">
+        <v>689</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="20" customHeight="1">
+      <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B192" s="1">
         <v>690</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>380</v>
       </c>
     </row>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4840" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1438,6 +1438,22 @@
   </si>
   <si>
     <t>commonError</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本验证失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionValidateFailed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本不匹配</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionNotEqual</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5501,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7625,6 +7641,28 @@
         <v>380</v>
       </c>
     </row>
+    <row r="193" spans="1:3" ht="20" customHeight="1">
+      <c r="A193" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B193" s="1">
+        <v>691</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="20" customHeight="1">
+      <c r="A194" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" s="1">
+        <v>692</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="390">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1454,6 +1454,14 @@
   </si>
   <si>
     <t>versionNotEqual</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟不需要申请加入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceDoNotNeedRequestToJoin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5517,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7663,6 +7671,17 @@
         <v>386</v>
       </c>
     </row>
+    <row r="195" spans="1:3" ht="20" customHeight="1">
+      <c r="A195" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" s="1">
+        <v>693</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="4840" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="392">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1462,6 +1462,14 @@
   </si>
   <si>
     <t>theAllianceDoNotNeedRequestToJoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1730">
+  <cellStyleXfs count="1734">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3335,6 +3343,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3348,7 +3360,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1730">
+  <cellStyles count="1734">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4216,6 +4228,8 @@
     <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1732" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5076,6 +5090,8 @@
     <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1733" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5525,10 +5541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7682,6 +7698,17 @@
         <v>388</v>
       </c>
     </row>
+    <row r="196" spans="1:3" ht="20" customHeight="1">
+      <c r="A196" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" s="1">
+        <v>694</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6020" yWindow="1220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="394">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1470,6 +1470,14 @@
   </si>
   <si>
     <t>monsterNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能购买自己出售的商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotBuyYourOwnSellItem</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5541,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7709,6 +7717,17 @@
         <v>390</v>
       </c>
     </row>
+    <row r="197" spans="1:3" ht="20" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197" s="1">
+        <v>695</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="1220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5060" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1478,6 +1478,14 @@
   </si>
   <si>
     <t>canNotBuyYourOwnSellItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化条件不满足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatchConditionNotMatch</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5549,10 +5557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7728,6 +7736,17 @@
         <v>392</v>
       </c>
     </row>
+    <row r="198" spans="1:3" ht="20" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" s="1">
+        <v>696</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5060" yWindow="3280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1486,6 +1486,54 @@
   </si>
   <si>
     <t>hatchConditionNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡未解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pveSecionIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetPvEStarRewardyet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取PvE星级奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pve星级奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pveStarRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前关卡已达最大战斗次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentSectionReachMaxFightCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家体力值不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerStaminaNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前PvE关卡还不能被扫荡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPvESectionCanNotBeSweepedYet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1734">
+  <cellStyleXfs count="1766">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3363,6 +3411,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3376,7 +3456,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1734">
+  <cellStyles count="1766">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4246,6 +4326,22 @@
     <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1730" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1764" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5108,6 +5204,22 @@
     <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1731" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1765" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5557,10 +5669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7747,6 +7859,72 @@
         <v>394</v>
       </c>
     </row>
+    <row r="199" spans="1:3" ht="20" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" s="1">
+        <v>697</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="20" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="1">
+        <v>698</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="20" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" s="1">
+        <v>699</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="20" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="1">
+        <v>700</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="20" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="1">
+        <v>700</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="20" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" s="1">
+        <v>701</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="3280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -5672,7 +5672,7 @@
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7908,7 +7908,7 @@
         <v>405</v>
       </c>
       <c r="B203" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>404</v>
@@ -7919,7 +7919,7 @@
         <v>407</v>
       </c>
       <c r="B204" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>406</v>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="412">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1534,6 +1534,22 @@
   </si>
   <si>
     <t>currentPvESectionCanNotBeSweepedYet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此邮件未包含奖励信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>thisMailNotContainsRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此邮件的奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theRewardsAlreadyGetedFromThisMail</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1766">
+  <cellStyleXfs count="1774">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3443,6 +3459,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3456,7 +3480,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1766">
+  <cellStyles count="1774">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4342,6 +4366,10 @@
     <cellStyle name="超链接" xfId="1760" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1762" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5220,6 +5248,10 @@
     <cellStyle name="访问过的超链接" xfId="1761" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1763" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5669,10 +5701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7925,6 +7957,28 @@
         <v>406</v>
       </c>
     </row>
+    <row r="205" spans="1:3" ht="20" customHeight="1">
+      <c r="A205" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="1">
+        <v>703</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="20" customHeight="1">
+      <c r="A206" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" s="1">
+        <v>704</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="414">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1550,6 +1550,14 @@
   </si>
   <si>
     <t>theRewardsAlreadyGetedFromThisMail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家被禁言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerIsForbiddenToSpeak</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1688,7 +1696,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1774">
+  <cellStyleXfs count="1776">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3467,6 +3475,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3480,7 +3490,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1774">
+  <cellStyles count="1776">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4370,6 +4380,7 @@
     <cellStyle name="超链接" xfId="1768" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5252,6 +5263,7 @@
     <cellStyle name="访问过的超链接" xfId="1769" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5701,10 +5713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7979,6 +7991,17 @@
         <v>410</v>
       </c>
     </row>
+    <row r="207" spans="1:3" ht="20" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" s="1">
+        <v>705</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5260" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1108,9 +1108,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>目标联盟未处于和平期,不能发起复仇</t>
-  </si>
-  <si>
     <t>targetAllianceNotInPeaceStatus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1558,6 +1555,57 @@
   </si>
   <si>
     <t>playerIsForbiddenToSpeak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能观察自己的联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotViewYourOwnAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有空闲的地图区域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noFreeMapArea</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未观察此地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotViewThisMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveAllianceRightNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前还不能移动联盟</t>
+  </si>
+  <si>
+    <t>不能移动到目标地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveToTargetMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标联盟未处于和平期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将被攻打,不能退出联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1696,7 +1744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1776">
+  <cellStyleXfs count="1796">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3477,6 +3525,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3490,7 +3558,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1776">
+  <cellStyles count="1796">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4381,6 +4449,16 @@
     <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5264,6 +5342,16 @@
     <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5713,10 +5801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5738,13 +5826,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6134,13 +6222,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -6893,13 +6981,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -6948,24 +7036,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7399,282 +7487,282 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B153" s="3">
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B154" s="3">
         <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B155" s="3">
         <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B156" s="3">
         <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B157" s="3">
         <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" s="3">
         <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B159" s="3">
         <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B160" s="3">
         <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B161" s="3">
         <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B162" s="3">
         <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" s="3">
         <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="3">
         <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B165" s="3">
         <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B166" s="3">
         <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167" s="3">
         <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B168" s="3">
         <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B169" s="3">
         <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170" s="3">
         <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B178" s="3">
         <v>676</v>
@@ -7685,321 +7773,387 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B179" s="3">
         <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B180" s="3">
         <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B181" s="3">
         <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B207" s="1">
         <v>705</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="20" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="1">
+        <v>706</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="20" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="1">
+        <v>707</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="20" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="1">
+        <v>708</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="20" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B211" s="1">
+        <v>709</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="20" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1">
+        <v>710</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="20" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" s="1">
+        <v>711</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5840" yWindow="0" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1607,6 +1607,12 @@
   <si>
     <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有商品正在出售,不能切换服务器</t>
+  </si>
+  <si>
+    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
   </si>
 </sst>
 </file>
@@ -5801,10 +5807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8156,6 +8162,17 @@
         <v>424</v>
       </c>
     </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1">
+        <v>712</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="0" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3880" yWindow="520" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1613,6 +1613,22 @@
   </si>
   <si>
     <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
+  </si>
+  <si>
+    <t>联盟宫殿等级过低,不能移动联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟数量已达最大,不能创建新联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceCountReachMaxCanNotCreateNewAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1750,7 +1766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1796">
+  <cellStyleXfs count="1804">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3551,6 +3567,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3564,7 +3588,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1796">
+  <cellStyles count="1804">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4465,6 +4489,10 @@
     <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5358,6 +5386,10 @@
     <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5807,10 +5839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8173,6 +8205,28 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="1">
+        <v>713</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>714</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="520" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="4940" yWindow="700" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1620,14 +1620,6 @@
   </si>
   <si>
     <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟数量已达最大,不能创建新联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceCountReachMaxCanNotCreateNewAlliance</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5839,10 +5831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8216,17 +8208,6 @@
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" s="1">
-        <v>714</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="700" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3660" yWindow="120" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -1612,15 +1612,15 @@
     <t>您有商品正在出售,不能切换服务器</t>
   </si>
   <si>
-    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
-  </si>
-  <si>
     <t>联盟宫殿等级过低,不能移动联盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>youHaveProductInSellCanNotSwitchServer</t>
   </si>
 </sst>
 </file>
@@ -5833,13 +5833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B214" s="1">
         <v>712</v>
@@ -8199,13 +8199,13 @@
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1">
         <v>713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
